--- a/SimCSE/simcse performance analysis.xlsx
+++ b/SimCSE/simcse performance analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148E6FB9-8C1E-47E5-90D5-1BE12C57E2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546D7858-98D9-4E4E-9A59-8A7F2C39BB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.2.1" sheetId="1" r:id="rId1"/>
@@ -674,16 +674,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>562870</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28785</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48520</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -706,7 +706,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="3476625"/>
+          <a:off x="1562100" y="4029075"/>
           <a:ext cx="6411220" cy="1505160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -718,16 +718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419549</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85882</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514799</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -750,7 +750,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="1819275"/>
+          <a:off x="1562100" y="2247900"/>
           <a:ext cx="3219899" cy="1124107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -762,16 +762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>248111</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104931</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29036</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,8 +794,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1209675" y="7372350"/>
+          <a:off x="1600200" y="7800975"/>
           <a:ext cx="3305636" cy="1114581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>86618</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>181186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FDC86A-1714-2FD5-5568-6919B98F292F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="9525000"/>
+          <a:ext cx="6401693" cy="1514686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1302,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2149,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1034AE-D12F-4C32-8394-147F59AE5875}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SimCSE/simcse performance analysis.xlsx
+++ b/SimCSE/simcse performance analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546D7858-98D9-4E4E-9A59-8A7F2C39BB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA6892-22AA-4D28-85FC-FD58154757E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>Enviornment</t>
   </si>
@@ -465,19 +465,25 @@
     <t>batch_size 64</t>
   </si>
   <si>
-    <t>Normal Trainer</t>
-  </si>
-  <si>
-    <t>Custom Trainer (Gradient clipping disabled)</t>
-  </si>
-  <si>
-    <t>CUDA_VISIBLE_DEVICES=0 nohup python main.py --output_dir gpu0 &amp;&gt; gpu0.out &amp;</t>
-  </si>
-  <si>
     <t>best stsb dev</t>
   </si>
   <si>
     <t>Unsupervised</t>
+  </si>
+  <si>
+    <t>Supervised</t>
+  </si>
+  <si>
+    <t>Gradient clipping enabled</t>
+  </si>
+  <si>
+    <t>Gradient clipping disabled</t>
+  </si>
+  <si>
+    <t>learning_rate 3e-5</t>
+  </si>
+  <si>
+    <t>learning_rate 5e-5</t>
   </si>
 </sst>
 </file>
@@ -675,15 +681,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>48520</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9735</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>343795</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -706,7 +712,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562100" y="4029075"/>
+          <a:off x="1247775" y="3200400"/>
           <a:ext cx="6411220" cy="1505160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -719,15 +725,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514799</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133507</xdr:rowOff>
+      <xdr:colOff>229049</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -750,7 +756,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562100" y="2247900"/>
+          <a:off x="1276350" y="1543050"/>
           <a:ext cx="3219899" cy="1124107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -763,15 +769,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>29036</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152556</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324311</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,7 +800,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="7800975"/>
+          <a:off x="1285875" y="6943725"/>
           <a:ext cx="3305636" cy="1114581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -807,15 +813,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>86618</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>181186</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400943</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -838,8 +844,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609725" y="9525000"/>
+          <a:off x="1314450" y="8467725"/>
           <a:ext cx="6401693" cy="1514686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>515246</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>143086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6195531A-CEEF-A4F7-F86D-34E3147223A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="14058900"/>
+          <a:ext cx="6420746" cy="1514686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286185</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B56286-7C06-9E87-B339-4BB258F03161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="12477750"/>
+          <a:ext cx="3115110" cy="1124107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,7 +1589,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1611,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -2191,92 +2285,189 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1034AE-D12F-4C32-8394-147F59AE5875}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="s">
+        <v>146</v>
+      </c>
+      <c r="U4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>137</v>
+      </c>
+      <c r="U30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" t="s">
+        <v>146</v>
+      </c>
+      <c r="U31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" t="s">
+        <v>140</v>
+      </c>
+      <c r="U32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="U33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>139</v>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SimCSE/simcse performance analysis.xlsx
+++ b/SimCSE/simcse performance analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA6892-22AA-4D28-85FC-FD58154757E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF281676-BC44-4E1C-8C58-C147F96DF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
   <si>
     <t>Enviornment</t>
   </si>
@@ -474,23 +474,38 @@
     <t>Supervised</t>
   </si>
   <si>
-    <t>Gradient clipping enabled</t>
-  </si>
-  <si>
-    <t>Gradient clipping disabled</t>
-  </si>
-  <si>
-    <t>learning_rate 3e-5</t>
-  </si>
-  <si>
-    <t>learning_rate 5e-5</t>
+    <t>disable_gradient_clipping: True</t>
+  </si>
+  <si>
+    <t>_n_gpu: 1</t>
+  </si>
+  <si>
+    <t>max_seq_length: 32</t>
+  </si>
+  <si>
+    <t>per_device_train_batch_size: 64</t>
+  </si>
+  <si>
+    <t>learning_rate: 3e-05</t>
+  </si>
+  <si>
+    <t>disable_gradient_clipping: False</t>
+  </si>
+  <si>
+    <t>learning_rate: 5e-05</t>
+  </si>
+  <si>
+    <t>learning_rate: 1e-05</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,12 +544,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -564,7 +573,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -680,23 +689,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>343795</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>362841</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176610B7-2C29-EDAA-8D0C-E447AE239D5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A2B6EB-FAC0-2179-74C0-D1AFD7E8EB05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -712,8 +721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="3200400"/>
-          <a:ext cx="6411220" cy="1505160"/>
+          <a:off x="8610600" y="2133600"/>
+          <a:ext cx="6382641" cy="1562318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,23 +733,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>229049</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>157</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>419989</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171651</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABB0280-A06C-B269-1517-F8B6738289E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969DBFFD-9FCA-ECC0-34D3-9EA9D3716346}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -756,8 +765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276350" y="1543050"/>
-          <a:ext cx="3219899" cy="1124107"/>
+          <a:off x="15382875" y="2162175"/>
+          <a:ext cx="6373114" cy="1438476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,23 +777,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>324311</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57306</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>305685</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFBEC98-69A5-96EE-1A96-35578AFB0603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B595BD-7DB9-BE83-01B5-A849FDBB935C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -800,8 +809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285875" y="6943725"/>
-          <a:ext cx="3305636" cy="1114581"/>
+          <a:off x="7981950" y="6010275"/>
+          <a:ext cx="6344535" cy="1381318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,23 +821,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400943</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>353313</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FDC86A-1714-2FD5-5568-6919B98F292F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F8F23A-0FB8-F1CC-19E1-BA1D8B582733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -844,8 +853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="8467725"/>
-          <a:ext cx="6401693" cy="1514686"/>
+          <a:off x="15325725" y="5991225"/>
+          <a:ext cx="6363588" cy="1514686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -856,23 +865,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>515246</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>143086</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>334263</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6195531A-CEEF-A4F7-F86D-34E3147223A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689FA5EE-ADCD-861C-9543-95FC90730AF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,8 +897,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="14058900"/>
-          <a:ext cx="6420746" cy="1514686"/>
+          <a:off x="7991475" y="9953625"/>
+          <a:ext cx="6363588" cy="1457528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -900,23 +909,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>286185</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>76357</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>372366</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>181174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B56286-7C06-9E87-B339-4BB258F03161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060464F7-A3F5-7496-0809-A85F71478D94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +941,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438275" y="12477750"/>
-          <a:ext cx="3115110" cy="1124107"/>
+          <a:off x="15325725" y="9991725"/>
+          <a:ext cx="6382641" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>362845</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4AAAF00-8836-1731-32AD-B65499484BA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="13420725"/>
+          <a:ext cx="6411220" cy="1352739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>324737</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB5FEE6-6AB9-DEFF-A141-91C722263D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="13373100"/>
+          <a:ext cx="6354062" cy="1467055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>362841</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2266CF2D-77C8-83C9-ECE0-EFE5B6A6C16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15316200" y="13411200"/>
+          <a:ext cx="6382641" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153017</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774D9437-302B-C3A9-0213-21B8792ADB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15621000"/>
+          <a:ext cx="4420217" cy="2314898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115676</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>86758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14200F56-8057-A4D1-9AAB-419D76A48001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="18021300"/>
+          <a:ext cx="9859751" cy="7401958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,7 +1670,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B16" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1721,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4"/>
@@ -1506,7 +1735,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1589,7 +1818,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1859,7 @@
   <dimension ref="A1:C312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,12 +1910,12 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2280,188 +2509,394 @@
     <hyperlink ref="A12" r:id="rId1" xr:uid="{DA999560-DAEA-4C5F-81B7-16FCF4CAE79C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1034AE-D12F-4C32-8394-147F59AE5875}">
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
-      </c>
-      <c r="U3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>146</v>
       </c>
-      <c r="U4" t="s">
+      <c r="M6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" t="s">
-        <v>140</v>
-      </c>
-      <c r="U5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="M7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" t="s">
+        <v>141</v>
+      </c>
+      <c r="P9">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC9">
+        <v>0.80979999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>144</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M24" t="s">
         <v>144</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="M26" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="N29" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29">
+        <v>0.79318999999999995</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB29">
+        <v>0.82759000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M30" t="s">
-        <v>137</v>
-      </c>
-      <c r="U30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="M44" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="M45" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="M46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y46" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>146</v>
       </c>
-      <c r="U31" t="s">
+      <c r="M47" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y47" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="M32" t="s">
-        <v>140</v>
-      </c>
-      <c r="U32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="M48" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="N50" t="s">
+        <v>141</v>
+      </c>
+      <c r="P50">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6">
+        <v>0.86019999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>145</v>
       </c>
-      <c r="U33" t="s">
+      <c r="M62" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="Y62" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>144</v>
       </c>
-      <c r="Q63" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="M63" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="M64" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="M65" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="M66" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+      <c r="E68">
+        <v>0.84953999999999996</v>
+      </c>
+      <c r="N68" t="s">
+        <v>141</v>
+      </c>
+      <c r="P68">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB68">
+        <v>0.86180000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>145</v>
+      <c r="N70" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/SimCSE/simcse performance analysis.xlsx
+++ b/SimCSE/simcse performance analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF281676-BC44-4E1C-8C58-C147F96DF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A58E9A0-51C0-41C7-89F8-2F943DDE0EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
   <si>
     <t>Enviornment</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>Unsupervised simcse</t>
   </si>
 </sst>
 </file>
@@ -596,15 +599,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>86632</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>47847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -640,15 +643,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>543378</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1171,6 +1174,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>382459</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>119035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6ECF35-1EB1-FF1C-A1F4-EDFC259847B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="644769" y="25512347"/>
+          <a:ext cx="5210902" cy="2419688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F009EE32-7756-20FF-0F8E-68AFD438C4AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1275521" y="2153478"/>
+          <a:ext cx="6344535" cy="1419423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>321015</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22301EE5-BAAB-1973-4E29-AF9D2828FEF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1283805" y="6013174"/>
+          <a:ext cx="6392167" cy="1381318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>226995</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B6542D-F04A-C305-5E4A-074AD8F0799A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1275522" y="9988826"/>
+          <a:ext cx="6306430" cy="1371791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1669,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B15:B16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,36 +1994,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BBBD74-5397-4865-B4A8-6EF18DB18FF0}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1858,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A3F1A3-C6FC-423F-9089-DE06F93F5A55}">
   <dimension ref="A1:C312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1034AE-D12F-4C32-8394-147F59AE5875}">
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,6 +2771,9 @@
       <c r="C9" t="s">
         <v>141</v>
       </c>
+      <c r="E9">
+        <v>0.81640000000000001</v>
+      </c>
       <c r="N9" t="s">
         <v>141</v>
       </c>
@@ -2669,6 +2856,9 @@
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>141</v>
+      </c>
+      <c r="E29">
+        <v>0.77100000000000002</v>
       </c>
       <c r="N29" t="s">
         <v>141</v>
@@ -2778,6 +2968,9 @@
     <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
+      </c>
+      <c r="E50">
+        <v>0.85050000000000003</v>
       </c>
       <c r="N50" t="s">
         <v>141</v>

--- a/SimCSE/simcse performance analysis.xlsx
+++ b/SimCSE/simcse performance analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A58E9A0-51C0-41C7-89F8-2F943DDE0EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFACF6-B26F-48B5-91C3-3A4E48004480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BBBD74-5397-4865-B4A8-6EF18DB18FF0}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A3F1A3-C6FC-423F-9089-DE06F93F5A55}">
   <dimension ref="A1:C312"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1034AE-D12F-4C32-8394-147F59AE5875}">
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V118" sqref="V118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3856D0-0E9F-4C21-9829-BDA52F7B2E95}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A61D980-EBA6-46E2-8ECF-21DA1B2A7637}">
   <dimension ref="B2:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SimCSE/simcse performance analysis.xlsx
+++ b/SimCSE/simcse performance analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softl\Workspace (code)\Proj-Sentence-Representation\SimCSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFACF6-B26F-48B5-91C3-3A4E48004480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEB7528-DD27-4319-A2A1-58DBDAA20A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,14 +569,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2701,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1034AE-D12F-4C32-8394-147F59AE5875}">
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V118" sqref="V118"/>
+    <sheetView tabSelected="1" topLeftCell="K26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,9 +2712,12 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>145</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="M3" t="s">
         <v>145</v>
       </c>
@@ -2724,9 +2726,12 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="M4" t="s">
         <v>149</v>
       </c>
@@ -2735,9 +2740,12 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="M5" t="s">
         <v>148</v>
       </c>
@@ -2746,9 +2754,12 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="M6" t="s">
         <v>146</v>
       </c>
@@ -2757,9 +2768,12 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="M7" t="s">
         <v>147</v>
       </c>
@@ -2767,11 +2781,19 @@
         <v>147</v>
       </c>
     </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>0.81640000000000001</v>
       </c>
       <c r="N9" t="s">
@@ -2896,12 +2918,12 @@
       <c r="M44" t="s">
         <v>145</v>
       </c>
-      <c r="Y44" s="6" t="s">
+      <c r="Y44" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -2910,12 +2932,12 @@
       <c r="M45" t="s">
         <v>149</v>
       </c>
-      <c r="Y45" s="6" t="s">
+      <c r="Y45" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2924,12 +2946,12 @@
       <c r="M46" t="s">
         <v>148</v>
       </c>
-      <c r="Y46" s="6" t="s">
+      <c r="Y46" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -2938,12 +2960,12 @@
       <c r="M47" t="s">
         <v>146</v>
       </c>
-      <c r="Y47" s="6" t="s">
+      <c r="Y47" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -2952,18 +2974,18 @@
       <c r="M48" t="s">
         <v>147</v>
       </c>
-      <c r="Y48" s="6" t="s">
+      <c r="Y48" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
@@ -2978,14 +3000,20 @@
       <c r="P50">
         <v>0.85860000000000003</v>
       </c>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6" t="s">
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6">
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5">
         <v>0.86019999999999996</v>
       </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
@@ -2994,9 +3022,12 @@
       <c r="N52" t="s">
         <v>139</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Q58" s="1"/>
